--- a/docs/StructureDefinition-cmv-presence-observation.xlsx
+++ b/docs/StructureDefinition-cmv-presence-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/cmv-presence-observation</t>
+    <t>http://example.org/ig/example/StructureDefinition/cmv-presence-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T09:15:43-05:00</t>
+    <t>2023-04-26T11:15:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-observation</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -967,7 +967,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/cmv-presence-vs</t>
+    <t>http://example.org/ig/example/ValueSet/cmv-presence-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -991,7 +991,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2056,7 +2056,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cmv-presence-observation.xlsx
+++ b/docs/StructureDefinition-cmv-presence-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/cmv-presence-observation</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/cmv-presence-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T11:15:05-05:00</t>
+    <t>2023-04-27T11:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-observation</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -967,7 +967,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/cmv-presence-vs</t>
+    <t>http://example.org/ig/exampleig/ValueSet/cmv-presence-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -991,7 +991,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/exampleig/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/exampleig/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2056,7 +2056,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.55859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cmv-presence-observation.xlsx
+++ b/docs/StructureDefinition-cmv-presence-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T11:07:01-05:00</t>
+    <t>2023-04-28T11:00:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cmv-presence-observation.xlsx
+++ b/docs/StructureDefinition-cmv-presence-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T11:00:43-05:00</t>
+    <t>2023-05-02T14:51:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
